--- a/biology/Histoire de la zoologie et de la botanique/Karl_Grobben/Karl_Grobben.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Grobben/Karl_Grobben.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Grobben est un zoologiste autrichien, né le 27 août 1854 à Brünn et mort le 13 avril 1945 à Salzbourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Ludwig Grobben et de Bertha née Fischer. Il étudie histoire naturelle et particulièrement la zoologie à l’université de Vienne et obtient son doctorat en 1877. Il rejoint l’université de Vienne deux ans plus tard. En 1884, il devient professeur-associé. En 1885, il se marie avec Ida Tschermak von Seysenegg, union dont il aura une fille.
 Il participe à une expédition dans l’est de la Méditerranée organisé par l’Académie des sciences de Vienne en 1889. Il prend la direction, en 1893, de l’Institut de Zootomic. En 1896, il dirige le premier Institut de zoologie de l’université de Vienne.
@@ -545,7 +559,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quelques taxons nommés par Grobben :
 Eumalacostraca Grobben, 1892
@@ -554,13 +570,13 @@
 Protostomia Grobben, 1908
 Deuterostomia Grobben, 1908
 Quelques taxons nommés en l'honneur de Grobben :
-Gerbillus grobbeni Klaptocz, 1909[1]
-Sphaerophthalmus grobbeni Spandl, 1923[2]
-Limnadia grobbeni Daday, 1925[2]
-Actinia grobbeni Watzl, 1922[2]
-Paladilhiopsis grobbeni Kuscer, 1928[2]
-Raillietina grobbeni Böhm, 1925[2]
-Trypanophis grobbeni (Poche, 1904)[2]</t>
+Gerbillus grobbeni Klaptocz, 1909
+Sphaerophthalmus grobbeni Spandl, 1923
+Limnadia grobbeni Daday, 1925
+Actinia grobbeni Watzl, 1922
+Paladilhiopsis grobbeni Kuscer, 1928
+Raillietina grobbeni Böhm, 1925
+Trypanophis grobbeni (Poche, 1904)</t>
         </is>
       </c>
     </row>
